--- a/9C paper/Loan tables.xlsx
+++ b/9C paper/Loan tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Venkat\learning\9C paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB26BCA-A95D-4B10-A080-C4446C77100A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08A752A-847D-4940-BCF9-5012B3362210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BC2DD72D-882D-4350-950C-3924BF06D017}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="84">
   <si>
     <t>HC-C Consolidated level analysis</t>
   </si>
@@ -184,6 +184,99 @@
   </si>
   <si>
     <t>MDRM2</t>
+  </si>
+  <si>
+    <t>Asset quality (HC-C and HC-N)</t>
+  </si>
+  <si>
+    <t>HC-C Value</t>
+  </si>
+  <si>
+    <t>HC-N Col A - Past due till 89 days</t>
+  </si>
+  <si>
+    <t>HC-N Col B - Past due &gt;90 days</t>
+  </si>
+  <si>
+    <t>HC-N Col C - Non accrual</t>
+  </si>
+  <si>
+    <t>Percentage of Non accrual</t>
+  </si>
+  <si>
+    <t>Systemic Risk</t>
+  </si>
+  <si>
+    <t>FR Y-15</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>Gross Notional amounts for items with 20% CCF</t>
+  </si>
+  <si>
+    <t>RISKM718</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>18.a</t>
+  </si>
+  <si>
+    <t>BHCKS525</t>
+  </si>
+  <si>
+    <t>FR Y-9C</t>
+  </si>
+  <si>
+    <t>Unused commitments - maturity of one year or less - 20% CCF</t>
+  </si>
+  <si>
+    <t>Commercial and similar letters of credit - 20% CCF</t>
+  </si>
+  <si>
+    <t>BHCKG806</t>
+  </si>
+  <si>
+    <t>Total FR Y-15</t>
+  </si>
+  <si>
+    <t>Total FR Y-9C</t>
+  </si>
+  <si>
+    <t>Liquidity Risk</t>
+  </si>
+  <si>
+    <t>Line description</t>
+  </si>
+  <si>
+    <t>Current Quarter Amount</t>
+  </si>
+  <si>
+    <t>Previous quarter amount</t>
+  </si>
+  <si>
+    <t>Securities purchased under agreements to resell</t>
+  </si>
+  <si>
+    <t>3b</t>
+  </si>
+  <si>
+    <t>BHCKB989</t>
+  </si>
+  <si>
+    <t>14.b</t>
+  </si>
+  <si>
+    <t>Securities sold under agreements to repurchase</t>
+  </si>
+  <si>
+    <t>BHCKB995</t>
+  </si>
+  <si>
+    <t>Difference in %</t>
   </si>
 </sst>
 </file>
@@ -299,7 +392,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -312,12 +405,17 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="8"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="-1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -451,14 +549,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8517A642-FCE2-4DCD-AED5-E8844A8B5B30}" name="Table1" displayName="Table1" ref="B5:F10" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8517A642-FCE2-4DCD-AED5-E8844A8B5B30}" name="Table1" displayName="Table1" ref="B5:F10" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="B5:F10" xr:uid="{8517A642-FCE2-4DCD-AED5-E8844A8B5B30}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{573C9749-A08C-43DA-B2A5-93F64CCF246A}" name="Sl. No"/>
     <tableColumn id="2" xr3:uid="{3B78083A-ED7A-45A3-83AC-6F2CDA560D18}" name="Description"/>
     <tableColumn id="3" xr3:uid="{0AC50BB6-46FA-4593-B6C4-305605C8AACE}" name="MDRM"/>
     <tableColumn id="4" xr3:uid="{D99C93A0-EFCF-4043-9732-1A7161FFDD19}" name="Amount in 1000 $"/>
-    <tableColumn id="5" xr3:uid="{557A5625-0BF5-4D82-B551-24840DC92FA6}" name="Percent of total HFI/HFS Loan book" dataDxfId="6" dataCellStyle="Percent">
+    <tableColumn id="5" xr3:uid="{557A5625-0BF5-4D82-B551-24840DC92FA6}" name="Percent of total HFI/HFS Loan book" dataDxfId="7" dataCellStyle="Percent">
       <calculatedColumnFormula>E6/$E$10</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -467,17 +565,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{984CA048-1046-47FC-B6C0-BA94B939D863}" name="Table2" displayName="Table2" ref="B14:G20" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{984CA048-1046-47FC-B6C0-BA94B939D863}" name="Table2" displayName="Table2" ref="B14:G20" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="B14:G20" xr:uid="{984CA048-1046-47FC-B6C0-BA94B939D863}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{052E57B4-2EA8-40E8-A549-56404179C46D}" name="Sl. No"/>
     <tableColumn id="2" xr3:uid="{83D5101D-131F-4990-9EFE-456FA4D40E2B}" name="Description"/>
     <tableColumn id="3" xr3:uid="{8A607CF1-2964-4CD3-8EF6-A3291C0F6F6E}" name="MDRM"/>
     <tableColumn id="4" xr3:uid="{F3959387-018A-4249-A8C8-0C9C20F8B0EB}" name="Amount in 1000 $"/>
-    <tableColumn id="5" xr3:uid="{F64D0227-2028-4500-A7D4-69324768E7B0}" name="Percent of total HFI/HFS Loan book" dataDxfId="2" dataCellStyle="Percent">
+    <tableColumn id="5" xr3:uid="{F64D0227-2028-4500-A7D4-69324768E7B0}" name="Percent of total HFI/HFS Loan book" dataDxfId="3" dataCellStyle="Percent">
       <calculatedColumnFormula>E15/$E$20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{EA35819E-0EB4-45B5-86CD-2AEF0F9645D5}" name="Percentage of Real Estate loans" dataDxfId="1">
+    <tableColumn id="6" xr3:uid="{EA35819E-0EB4-45B5-86CD-2AEF0F9645D5}" name="Percentage of Real Estate loans" dataDxfId="2">
       <calculatedColumnFormula>Table2[[#This Row],[Amount in 1000 $]]/$E$15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -495,8 +593,57 @@
     <tableColumn id="4" xr3:uid="{87216531-FF98-4839-9C27-76130B3B7DBA}" name="Amortized Cost Amount"/>
     <tableColumn id="5" xr3:uid="{BA0A3F1C-BC91-4C19-B85F-233FC7FD9BC5}" name="MDRM2"/>
     <tableColumn id="6" xr3:uid="{18FF27AA-D57F-4AA7-A552-B47F484B3AA4}" name="Allowance Amount"/>
-    <tableColumn id="7" xr3:uid="{7A795B2D-3843-4BE8-B3C6-3AF3561F64B0}" name="% Allowance" dataDxfId="0" dataCellStyle="Percent">
+    <tableColumn id="7" xr3:uid="{7A795B2D-3843-4BE8-B3C6-3AF3561F64B0}" name="% Allowance" dataDxfId="1" dataCellStyle="Percent">
       <calculatedColumnFormula>Table3[[#This Row],[Allowance Amount]]/Table3[[#This Row],[Amortized Cost Amount]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6A9C8B6B-CC78-47AA-BB69-3185561E3033}" name="Table4" displayName="Table4" ref="B31:G35" totalsRowShown="0">
+  <autoFilter ref="B31:G35" xr:uid="{6A9C8B6B-CC78-47AA-BB69-3185561E3033}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{3A3927AA-D4EE-4C4C-9732-F3D87A6719C1}" name="Description"/>
+    <tableColumn id="2" xr3:uid="{7E05446F-7040-4A16-BECF-79A417B41A87}" name="HC-C Value"/>
+    <tableColumn id="3" xr3:uid="{EBBAEB18-DC00-4A7D-9AD3-3BF498F1152C}" name="HC-N Col A - Past due till 89 days"/>
+    <tableColumn id="4" xr3:uid="{17F46240-96B9-4832-A58E-A2794ADFE920}" name="HC-N Col B - Past due &gt;90 days"/>
+    <tableColumn id="5" xr3:uid="{AE7EF3EE-4E01-46B0-9399-E68E5D3659EA}" name="HC-N Col C - Non accrual"/>
+    <tableColumn id="6" xr3:uid="{81113A76-9827-4D31-9495-C4400DC2545F}" name="Percentage of Non accrual" dataDxfId="0" dataCellStyle="Percent">
+      <calculatedColumnFormula>Table4[[#This Row],[HC-N Col C - Non accrual]]/Table4[[#This Row],[HC-C Value]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9358481D-5D10-4601-BE00-36BDEE01B4B8}" name="Table5" displayName="Table5" ref="B39:F43" totalsRowShown="0">
+  <autoFilter ref="B39:F43" xr:uid="{9358481D-5D10-4601-BE00-36BDEE01B4B8}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{E5139D2C-FA28-4766-B997-8D68848B2521}" name="Sl. No"/>
+    <tableColumn id="2" xr3:uid="{86AD776F-14F8-4C65-97B1-578CAB107343}" name="Line Item"/>
+    <tableColumn id="3" xr3:uid="{D248496C-748F-4316-9C4C-AB619D83EF7D}" name="MDRM"/>
+    <tableColumn id="4" xr3:uid="{ED76CB08-1506-4EED-A085-42050A81C6A4}" name="Report"/>
+    <tableColumn id="5" xr3:uid="{136F6826-F101-4DCF-B8CF-0D93A8DA3C11}" name="Amount"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{97CB899C-755B-4B3E-B716-F825490A2C03}" name="Table6" displayName="Table6" ref="B47:H49" totalsRowShown="0">
+  <autoFilter ref="B47:H49" xr:uid="{97CB899C-755B-4B3E-B716-F825490A2C03}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{319EEC2D-8182-4CD1-8BFB-0988D23F794C}" name="Sl. No"/>
+    <tableColumn id="2" xr3:uid="{D7E94B07-F2B7-4410-809D-15AB3BC0239E}" name="Line description"/>
+    <tableColumn id="3" xr3:uid="{4D7A46CB-7791-4127-9F21-9EF3C1447063}" name="MDRM"/>
+    <tableColumn id="4" xr3:uid="{60E48E41-A34A-4EA0-AF41-1B9731F5A121}" name="Report"/>
+    <tableColumn id="5" xr3:uid="{2CF44F9A-92D3-42E5-9381-384F848617BD}" name="Current Quarter Amount"/>
+    <tableColumn id="6" xr3:uid="{6A62F7FA-76A2-48F0-A1C6-C88DAF2A7E75}" name="Previous quarter amount"/>
+    <tableColumn id="7" xr3:uid="{1858725A-D8B9-4A1F-BC65-5F0A130A9471}" name="Difference in %">
+      <calculatedColumnFormula>(F48-G48)/G48</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -800,20 +947,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB0C7241-64D5-4D40-8091-7CCB877DE37C}">
-  <dimension ref="B2:H27"/>
+  <dimension ref="B2:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:H27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47:H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="90.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" customWidth="1"/>
     <col min="6" max="6" width="33.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
@@ -1189,13 +1337,289 @@
         <v>1.0447827543957563E-2</v>
       </c>
     </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="10">
+        <v>4203358</v>
+      </c>
+      <c r="D32">
+        <v>32929</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>71445</v>
+      </c>
+      <c r="G32" s="11">
+        <f>Table4[[#This Row],[HC-N Col C - Non accrual]]/Table4[[#This Row],[HC-C Value]]</f>
+        <v>1.6997124679839309E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="4">
+        <v>15450206</v>
+      </c>
+      <c r="D33">
+        <v>243032</v>
+      </c>
+      <c r="E33">
+        <v>478990</v>
+      </c>
+      <c r="F33">
+        <v>420428</v>
+      </c>
+      <c r="G33" s="11">
+        <f>Table4[[#This Row],[HC-N Col C - Non accrual]]/Table4[[#This Row],[HC-C Value]]</f>
+        <v>2.7211805460716835E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="10">
+        <v>80500</v>
+      </c>
+      <c r="D34">
+        <v>1289</v>
+      </c>
+      <c r="E34">
+        <v>36</v>
+      </c>
+      <c r="F34">
+        <v>7944</v>
+      </c>
+      <c r="G34" s="11">
+        <f>Table4[[#This Row],[HC-N Col C - Non accrual]]/Table4[[#This Row],[HC-C Value]]</f>
+        <v>9.8683229813664591E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>56992863</v>
+      </c>
+      <c r="D35">
+        <v>45030</v>
+      </c>
+      <c r="E35">
+        <v>10703</v>
+      </c>
+      <c r="F35">
+        <v>243017</v>
+      </c>
+      <c r="G35" s="11">
+        <f>Table4[[#This Row],[HC-N Col C - Non accrual]]/Table4[[#This Row],[HC-C Value]]</f>
+        <v>4.2639900367875882E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>61</v>
+      </c>
+      <c r="F39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40">
+        <v>2984843</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41" t="s">
+        <v>67</v>
+      </c>
+      <c r="F41">
+        <v>2980947</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>14</v>
+      </c>
+      <c r="C42" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42">
+        <v>3896</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43">
+        <f>SUM(F41:F42)</f>
+        <v>2984843</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F43">
+        <f>F40</f>
+        <v>2984843</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>74</v>
+      </c>
+      <c r="D47" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" t="s">
+        <v>61</v>
+      </c>
+      <c r="F47" t="s">
+        <v>75</v>
+      </c>
+      <c r="G47" t="s">
+        <v>76</v>
+      </c>
+      <c r="H47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48" t="s">
+        <v>79</v>
+      </c>
+      <c r="E48" t="s">
+        <v>67</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" t="s">
+        <v>81</v>
+      </c>
+      <c r="D49" t="s">
+        <v>82</v>
+      </c>
+      <c r="E49" t="s">
+        <v>67</v>
+      </c>
+      <c r="F49">
+        <v>152515</v>
+      </c>
+      <c r="G49">
+        <v>59482</v>
+      </c>
+      <c r="H49" s="2">
+        <f>(F49-G49)/G49</f>
+        <v>1.5640529908207526</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="3">
+  <tableParts count="6">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>